--- a/igem_promoters.xlsx
+++ b/igem_promoters.xlsx
@@ -5,53 +5,72 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UST\2021 1학기\현장연구\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UST\2021 1학기\현장연구\210419\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="igem_team" sheetId="1" r:id="rId1"/>
+    <sheet name="igem_part" sheetId="2" r:id="rId2"/>
+    <sheet name="igem_obs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="189">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>team_name</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>wiki</t>
+  </si>
+  <si>
+    <t>ZJU-China</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/Team:ZJU-China</t>
+  </si>
+  <si>
+    <t>Jilin_China</t>
+  </si>
+  <si>
+    <t>iGAME</t>
+  </si>
+  <si>
+    <t>https://2020.igem.org/Team:Jilin_China</t>
+  </si>
+  <si>
+    <t>BHSF_ND</t>
+  </si>
+  <si>
+    <t>Protector a bistable system</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/Team:BHSF_ND</t>
+  </si>
+  <si>
+    <t>iBowu-China</t>
+  </si>
+  <si>
+    <t>Biocontrol of Soft Rot</t>
+  </si>
   <si>
     <t>https://2019.igem.org/Team:iBowu-China</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>team_name</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>wiki</t>
-  </si>
-  <si>
-    <t>iBowu-China</t>
-  </si>
-  <si>
-    <t>Biocontrol of Soft Rot</t>
-  </si>
-  <si>
     <t>OUC-China</t>
   </si>
   <si>
@@ -61,6 +80,84 @@
     <t>https://2020.igem.org/Team:OUC-China</t>
   </si>
   <si>
+    <t>Team:Aboa</t>
+  </si>
+  <si>
+    <t>Expanded genetic code to control antibody orientation in immunodiagnostics</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/Team:Aboa</t>
+  </si>
+  <si>
+    <t>Hong_Kong_HKU</t>
+  </si>
+  <si>
+    <t>Engineered Salmonella Typhimurium for enhanced drug delivery and cancer stem cell targeting</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/Team:Hong_Kong_HKU</t>
+  </si>
+  <si>
+    <t>Team:Stuttgart</t>
+  </si>
+  <si>
+    <t>Phycontrophic codon optimized Vibrio natriegnes</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/Team:Stuttgart</t>
+  </si>
+  <si>
+    <t>Nottingham</t>
+  </si>
+  <si>
+    <t>Engineer a phage which will infect C. difficile and express genetic constructs designed to suppress toxin production.</t>
+  </si>
+  <si>
+    <t>http://2018.igem.org/Team:Nottingham</t>
+  </si>
+  <si>
+    <t>UCAS-China</t>
+  </si>
+  <si>
+    <t>Constructing an efficient temperature-sensitive switch system as a safe platform for microbial therapy</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/Team:UCAS-China</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>Create a monitor that can improve current pollution detection</t>
+  </si>
+  <si>
+    <t>https://2020.igem.org/Team:Stockholm</t>
+  </si>
+  <si>
+    <t>Baltimore_BioCrew</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/Team:Baltimore_BioCrew</t>
+  </si>
+  <si>
+    <t>BOKU-Vienna</t>
+  </si>
+  <si>
+    <t>help people dealing with sepsis caused by Lipopolysaccharides (LPS) from gram-negative bacteria lysis</t>
+  </si>
+  <si>
+    <t>https://2020.igem.org/Team:BOKU-Vienna</t>
+  </si>
+  <si>
+    <t>Tongji_China</t>
+  </si>
+  <si>
+    <t>Seek Heme And Reflect cracK (SHARK)</t>
+  </si>
+  <si>
+    <t>https://2020.igem.org/Team:Tongji_China</t>
+  </si>
+  <si>
     <t>BBid</t>
   </si>
   <si>
@@ -79,6 +176,9 @@
     <t>user</t>
   </si>
   <si>
+    <t>Bbid</t>
+  </si>
+  <si>
     <t>BBa_J23101</t>
   </si>
   <si>
@@ -97,6 +197,9 @@
     <t>JinjuLee119</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>BBa_B0034</t>
   </si>
   <si>
@@ -154,6 +257,147 @@
     <t>http://parts.igem.org/Part:BBa_K3328031</t>
   </si>
   <si>
+    <t>BBa_R0010</t>
+  </si>
+  <si>
+    <t>Promoter</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_R0010</t>
+  </si>
+  <si>
+    <t>th-kim310</t>
+  </si>
+  <si>
+    <t>BBa_K5670184</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_K5670184</t>
+  </si>
+  <si>
+    <t>BBa_E1010</t>
+  </si>
+  <si>
+    <t>RFP</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_E1010</t>
+  </si>
+  <si>
+    <t>BBa_B0054</t>
+  </si>
+  <si>
+    <t>Terminator</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_B0054</t>
+  </si>
+  <si>
+    <t>BBa_J23100</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_J23100</t>
+  </si>
+  <si>
+    <t>BBa_J61002</t>
+  </si>
+  <si>
+    <t>BBa_J23119</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_J23119</t>
+  </si>
+  <si>
+    <t>pMTL84151</t>
+  </si>
+  <si>
+    <t>sb.h</t>
+  </si>
+  <si>
+    <t>BBa_K2715010</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_K2715010</t>
+  </si>
+  <si>
+    <t>BBa_E0040</t>
+  </si>
+  <si>
+    <t>GFP</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_E0040</t>
+  </si>
+  <si>
+    <t>D0002</t>
+  </si>
+  <si>
+    <t>BBa_K2969998</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_K2969998</t>
+  </si>
+  <si>
+    <t>BBa_K2969020</t>
+  </si>
+  <si>
+    <t>TEVsite</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_K2969020</t>
+  </si>
+  <si>
+    <t>BBa_I746916</t>
+  </si>
+  <si>
+    <t>sfGFP</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_I746916</t>
+  </si>
+  <si>
+    <t>BBa_K2969991</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_K2969991</t>
+  </si>
+  <si>
+    <t>D0003</t>
+  </si>
+  <si>
+    <t>yoo-bh</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_J23105</t>
+  </si>
+  <si>
+    <t>BBa_J23105</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_B1001</t>
+  </si>
+  <si>
+    <t>BBa_B1001</t>
+  </si>
+  <si>
+    <t>Reporter mCherry</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_J06504</t>
+  </si>
+  <si>
+    <t>BBa_J06504</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_R0051</t>
+  </si>
+  <si>
+    <t>pSB1C3</t>
+  </si>
+  <si>
+    <t>BBa_R0051</t>
+  </si>
+  <si>
     <t>indc</t>
   </si>
   <si>
@@ -172,6 +416,12 @@
     <t>incubtemp</t>
   </si>
   <si>
+    <t>concunit</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
     <t>AHL</t>
   </si>
   <si>
@@ -184,86 +434,328 @@
     <t>https://2019.igem.org/Team:iBowu-China/Demonstrate#ResultCellFree</t>
   </si>
   <si>
+    <t>https://2020.igem.org/Team:iBowu-China/Demonstrate#ResultCellFree</t>
+  </si>
+  <si>
+    <t>https://2021.igem.org/Team:iBowu-China/Demonstrate#ResultCellFree</t>
+  </si>
+  <si>
+    <t>https://2022.igem.org/Team:iBowu-China/Demonstrate#ResultCellFree</t>
+  </si>
+  <si>
+    <t>https://2023.igem.org/Team:iBowu-China/Demonstrate#ResultCellFree</t>
+  </si>
+  <si>
+    <t>https://2024.igem.org/Team:iBowu-China/Demonstrate#ResultCellFree</t>
+  </si>
+  <si>
+    <t>HSL</t>
+  </si>
+  <si>
+    <t>fluorescence(a.u.)</t>
+  </si>
+  <si>
+    <t>10 hours</t>
+  </si>
+  <si>
+    <t>https://2020.igem.org/Team:OUC-China/Results</t>
+  </si>
+  <si>
+    <t>mg/mL</t>
+  </si>
+  <si>
+    <t>https://2021.igem.org/Team:OUC-China/Results</t>
+  </si>
+  <si>
+    <t>https://2022.igem.org/Team:OUC-China/Results</t>
+  </si>
+  <si>
+    <t>https://2023.igem.org/Team:OUC-China/Results</t>
+  </si>
+  <si>
+    <t>https://2024.igem.org/Team:OUC-China/Results</t>
+  </si>
+  <si>
+    <t>https://2025.igem.org/Team:OUC-China/Results</t>
+  </si>
+  <si>
+    <t>IPTG</t>
+  </si>
+  <si>
+    <t>Relative fluorescence_RFP</t>
+  </si>
+  <si>
+    <t>O/N</t>
+  </si>
+  <si>
+    <t>https://https://2019.igem.org/Team:Aboa/Contribution</t>
+  </si>
+  <si>
+    <t>mM</t>
+  </si>
+  <si>
+    <t>E. coli</t>
+  </si>
+  <si>
+    <t>Relative fluorescence_GFP</t>
+  </si>
+  <si>
+    <t>Fluorescence</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/Team:Hong_Kong_HKU/Characterization</t>
+  </si>
+  <si>
+    <t>S. typhi</t>
+  </si>
+  <si>
+    <t>RQ/gap</t>
+  </si>
+  <si>
+    <t>https://2019.igem.org/Team:Stuttgart/Contribution</t>
+  </si>
+  <si>
+    <t>E. coli MG1655</t>
+  </si>
+  <si>
+    <t>uM Fluorescein/OD</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_K2715119</t>
+  </si>
+  <si>
+    <t>Fluorescence(a.u.)</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_K2969050</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_K3440003</t>
+  </si>
+  <si>
+    <t>R0051</t>
+  </si>
+  <si>
+    <t>Overnight</t>
+  </si>
+  <si>
+    <t>http://parts.igem.org/Part:BBa_BBa_R0051</t>
+  </si>
+  <si>
+    <t>J04450</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>PaDetector; a household device for HPV preliminary screening</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>To repopulate the microbiome after antibiotic treatment which in turn will fortify the gut against bacterial disease</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBa_J23101</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBa_J23105</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBa_B1101</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBa_J06504</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBa_B1001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBa_R0051</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBa_B0034</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBa_E1010</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBa_B0015</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>HSL</t>
-  </si>
-  <si>
-    <t>fluorescence(a.u.)</t>
-  </si>
-  <si>
-    <t>10 hours</t>
-  </si>
-  <si>
-    <t>https://2020.igem.org/Team:OUC-China/Results</t>
-  </si>
-  <si>
-    <t>mg/mL</t>
-  </si>
-  <si>
-    <t>device_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37 ℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://2020.igem.org/Team:iBowu-China/Demonstrate#ResultCellFree</t>
-  </si>
-  <si>
-    <t>https://2021.igem.org/Team:iBowu-China/Demonstrate#ResultCellFree</t>
-  </si>
-  <si>
-    <t>https://2022.igem.org/Team:iBowu-China/Demonstrate#ResultCellFree</t>
-  </si>
-  <si>
-    <t>https://2023.igem.org/Team:iBowu-China/Demonstrate#ResultCellFree</t>
-  </si>
-  <si>
-    <t>https://2024.igem.org/Team:iBowu-China/Demonstrate#ResultCellFree</t>
-  </si>
-  <si>
-    <t>https://2021.igem.org/Team:OUC-China/Results</t>
-  </si>
-  <si>
-    <t>https://2022.igem.org/Team:OUC-China/Results</t>
-  </si>
-  <si>
-    <t>https://2023.igem.org/Team:OUC-China/Results</t>
-  </si>
-  <si>
-    <t>https://2024.igem.org/Team:OUC-China/Results</t>
-  </si>
-  <si>
-    <t>https://2025.igem.org/Team:OUC-China/Results</t>
-  </si>
-  <si>
-    <t>link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>concunit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -277,15 +769,188 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -293,9 +958,239 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -307,7 +1202,48 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -586,29 +1522,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -616,16 +1558,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="D2">
         <v>2019</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -633,20 +1575,224 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3">
         <v>2020</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>2019</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>2019</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>2019</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>2019</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>2019</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>2018</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>2019</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>2020</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13">
+        <v>2019</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>2020</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -654,350 +1800,1775 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" t="s">
+        <v>96</v>
+      </c>
+      <c r="I40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44" t="s">
+        <v>96</v>
+      </c>
+      <c r="I44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" t="s">
+        <v>113</v>
+      </c>
+      <c r="G45" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s">
+        <v>114</v>
+      </c>
+      <c r="I47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" t="s">
+        <v>37</v>
+      </c>
+      <c r="H48" t="s">
+        <v>114</v>
+      </c>
+      <c r="I48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" t="s">
+        <v>114</v>
+      </c>
+      <c r="I49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" t="s">
+        <v>37</v>
+      </c>
+      <c r="H50" t="s">
+        <v>114</v>
+      </c>
+      <c r="I50" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="H51" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F52" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" t="s">
+        <v>114</v>
+      </c>
+      <c r="I52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" t="s">
+        <v>58</v>
+      </c>
+      <c r="F53" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" t="s">
+        <v>114</v>
+      </c>
+      <c r="I53" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>8</v>
       </c>
-      <c r="H10" t="s">
-        <v>22</v>
+      <c r="B54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D54" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H54" t="s">
+        <v>114</v>
+      </c>
+      <c r="I54" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" t="s">
+        <v>74</v>
+      </c>
+      <c r="G55" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" t="s">
+        <v>114</v>
+      </c>
+      <c r="I55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" t="s">
+        <v>42</v>
+      </c>
+      <c r="H56" t="s">
+        <v>114</v>
+      </c>
+      <c r="I56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" t="s">
+        <v>123</v>
+      </c>
+      <c r="F57" t="s">
+        <v>74</v>
+      </c>
+      <c r="G57" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" t="s">
+        <v>114</v>
+      </c>
+      <c r="I57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" t="s">
+        <v>74</v>
+      </c>
+      <c r="G58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H58" t="s">
+        <v>114</v>
+      </c>
+      <c r="I58" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="9" max="9" width="66.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" t="s">
-        <v>72</v>
-      </c>
       <c r="J1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="K1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="C2">
         <v>0.1</v>
@@ -1006,30 +3577,33 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>61</v>
+        <v>135</v>
+      </c>
+      <c r="G2">
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1038,30 +3612,33 @@
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
+        <v>135</v>
+      </c>
+      <c r="G3">
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -1070,30 +3647,33 @@
         <v>200000</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" t="s">
-        <v>61</v>
+        <v>135</v>
+      </c>
+      <c r="G4">
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -1102,30 +3682,33 @@
         <v>300000</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" t="s">
-        <v>61</v>
+        <v>135</v>
+      </c>
+      <c r="G5">
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="C6">
         <v>500</v>
@@ -1134,30 +3717,33 @@
         <v>400000</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
+        <v>135</v>
+      </c>
+      <c r="G6">
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="C7">
         <v>1000</v>
@@ -1166,30 +3752,33 @@
         <v>350000</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" t="s">
-        <v>61</v>
+        <v>135</v>
+      </c>
+      <c r="G7">
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1198,30 +3787,33 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" t="s">
-        <v>61</v>
+        <v>144</v>
+      </c>
+      <c r="G8">
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="K8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="C9">
         <v>1E-3</v>
@@ -1230,30 +3822,33 @@
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
+        <v>144</v>
+      </c>
+      <c r="G9">
+        <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="C10">
         <v>2E-3</v>
@@ -1262,30 +3857,33 @@
         <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" t="s">
-        <v>61</v>
+        <v>144</v>
+      </c>
+      <c r="G10">
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="K10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="C11">
         <v>0.01</v>
@@ -1294,30 +3892,33 @@
         <v>300</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
+        <v>144</v>
+      </c>
+      <c r="G11">
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="C12">
         <v>0.1</v>
@@ -1326,30 +3927,33 @@
         <v>400</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" t="s">
-        <v>61</v>
+        <v>144</v>
+      </c>
+      <c r="G12">
+        <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="K12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1358,27 +3962,1884 @@
         <v>380</v>
       </c>
       <c r="E13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>152</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>4.5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1.2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>4.2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="D17">
+        <v>1.4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" t="s">
+        <v>155</v>
+      </c>
+      <c r="J17" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>3.9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" t="s">
+        <v>155</v>
+      </c>
+      <c r="J18" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1.4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>5000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>15000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>15000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" t="s">
+        <v>160</v>
+      </c>
+      <c r="J22" t="s">
+        <v>156</v>
+      </c>
+      <c r="K22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>15000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" t="s">
+        <v>160</v>
+      </c>
+      <c r="J23" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" t="s">
+        <v>163</v>
+      </c>
+      <c r="J24" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25">
+        <v>0.1</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J25" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" t="s">
+        <v>137</v>
+      </c>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1">
+        <v>200000</v>
+      </c>
+      <c r="E27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" t="s">
+        <v>138</v>
+      </c>
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28" s="1">
+        <v>300000</v>
+      </c>
+      <c r="E28" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" t="s">
+        <v>139</v>
+      </c>
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29">
+        <v>500</v>
+      </c>
+      <c r="D29" s="1">
+        <v>400000</v>
+      </c>
+      <c r="E29" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" t="s">
+        <v>140</v>
+      </c>
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30">
+        <v>1000</v>
+      </c>
+      <c r="D30">
+        <v>350000</v>
+      </c>
+      <c r="E30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" t="s">
+        <v>141</v>
+      </c>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s">
+        <v>187</v>
+      </c>
+      <c r="I31" t="s">
+        <v>145</v>
+      </c>
+      <c r="J31" t="s">
+        <v>146</v>
+      </c>
+      <c r="K31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32">
+        <v>1E-3</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
+        <v>187</v>
+      </c>
+      <c r="I32" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33">
+        <v>2E-3</v>
+      </c>
+      <c r="D33">
+        <v>130</v>
+      </c>
+      <c r="E33" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" t="s">
+        <v>144</v>
+      </c>
+      <c r="G33">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s">
+        <v>187</v>
+      </c>
+      <c r="I33" t="s">
+        <v>148</v>
+      </c>
+      <c r="J33" t="s">
+        <v>146</v>
+      </c>
+      <c r="K33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34">
+        <v>0.01</v>
+      </c>
+      <c r="D34">
+        <v>300</v>
+      </c>
+      <c r="E34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s">
+        <v>187</v>
+      </c>
+      <c r="I34" t="s">
+        <v>149</v>
+      </c>
+      <c r="J34" t="s">
+        <v>146</v>
+      </c>
+      <c r="K34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35">
+        <v>0.1</v>
+      </c>
+      <c r="D35">
+        <v>400</v>
+      </c>
+      <c r="E35" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s">
+        <v>187</v>
+      </c>
+      <c r="I35" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" t="s">
+        <v>146</v>
+      </c>
+      <c r="K35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>380</v>
+      </c>
+      <c r="E36" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s">
+        <v>187</v>
+      </c>
+      <c r="I36" t="s">
+        <v>151</v>
+      </c>
+      <c r="J36" t="s">
+        <v>146</v>
+      </c>
+      <c r="K36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>4.5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" t="s">
+        <v>154</v>
+      </c>
+      <c r="G37">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" t="s">
+        <v>155</v>
+      </c>
+      <c r="J37" t="s">
+        <v>156</v>
+      </c>
+      <c r="K37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1.2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" t="s">
+        <v>154</v>
+      </c>
+      <c r="G38">
+        <v>37</v>
+      </c>
+      <c r="H38" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" t="s">
+        <v>155</v>
+      </c>
+      <c r="J38" t="s">
+        <v>156</v>
+      </c>
+      <c r="K38" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39">
+        <v>0.5</v>
+      </c>
+      <c r="D39">
+        <v>4.2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" t="s">
+        <v>154</v>
+      </c>
+      <c r="G39">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" t="s">
+        <v>155</v>
+      </c>
+      <c r="J39" t="s">
+        <v>156</v>
+      </c>
+      <c r="K39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40">
+        <v>0.5</v>
+      </c>
+      <c r="D40">
+        <v>1.4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>158</v>
+      </c>
+      <c r="F40" t="s">
+        <v>154</v>
+      </c>
+      <c r="G40">
+        <v>37</v>
+      </c>
+      <c r="H40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" t="s">
+        <v>155</v>
+      </c>
+      <c r="J40" t="s">
+        <v>156</v>
+      </c>
+      <c r="K40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>3.9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F41" t="s">
+        <v>154</v>
+      </c>
+      <c r="G41">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" t="s">
+        <v>155</v>
+      </c>
+      <c r="J41" t="s">
+        <v>156</v>
+      </c>
+      <c r="K41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1.4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>158</v>
+      </c>
+      <c r="F42" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42">
+        <v>37</v>
+      </c>
+      <c r="H42" t="s">
+        <v>56</v>
+      </c>
+      <c r="I42" t="s">
+        <v>155</v>
+      </c>
+      <c r="J42" t="s">
+        <v>156</v>
+      </c>
+      <c r="K42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>152</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>5000</v>
+      </c>
+      <c r="E43" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" t="s">
+        <v>160</v>
+      </c>
+      <c r="J43" t="s">
+        <v>156</v>
+      </c>
+      <c r="K43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>15000</v>
+      </c>
+      <c r="E44" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" t="s">
+        <v>160</v>
+      </c>
+      <c r="J44" t="s">
+        <v>156</v>
+      </c>
+      <c r="K44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>15000</v>
+      </c>
+      <c r="E45" t="s">
+        <v>159</v>
+      </c>
+      <c r="F45" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" t="s">
+        <v>58</v>
+      </c>
+      <c r="H45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" t="s">
+        <v>160</v>
+      </c>
+      <c r="J45" t="s">
+        <v>156</v>
+      </c>
+      <c r="K45" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>15000</v>
+      </c>
+      <c r="E46" t="s">
+        <v>159</v>
+      </c>
+      <c r="F46" t="s">
+        <v>58</v>
+      </c>
+      <c r="G46" t="s">
+        <v>58</v>
+      </c>
+      <c r="H46" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" t="s">
+        <v>160</v>
+      </c>
+      <c r="J46" t="s">
+        <v>156</v>
+      </c>
+      <c r="K46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>162</v>
+      </c>
+      <c r="F47" t="s">
+        <v>154</v>
+      </c>
+      <c r="G47">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" t="s">
+        <v>163</v>
+      </c>
+      <c r="J47" t="s">
+        <v>58</v>
+      </c>
+      <c r="K47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48">
+        <v>0.06</v>
+      </c>
+      <c r="E48" t="s">
+        <v>165</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48">
+        <v>37</v>
+      </c>
+      <c r="H48" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" t="s">
+        <v>166</v>
+      </c>
+      <c r="J48" t="s">
+        <v>74</v>
+      </c>
+      <c r="K48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49">
+        <v>60</v>
+      </c>
+      <c r="E49" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49">
+        <v>25</v>
+      </c>
+      <c r="H49" t="s">
+        <v>102</v>
+      </c>
+      <c r="I49" t="s">
+        <v>168</v>
+      </c>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50">
+        <v>65</v>
+      </c>
+      <c r="E50" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50">
+        <v>30</v>
+      </c>
+      <c r="H50" t="s">
+        <v>102</v>
+      </c>
+      <c r="I50" t="s">
+        <v>168</v>
+      </c>
+      <c r="J50" t="s">
+        <v>74</v>
+      </c>
+      <c r="K50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51">
+        <v>75</v>
+      </c>
+      <c r="E51" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51" t="s">
+        <v>58</v>
+      </c>
+      <c r="G51">
+        <v>34</v>
+      </c>
+      <c r="H51" t="s">
+        <v>102</v>
+      </c>
+      <c r="I51" t="s">
+        <v>168</v>
+      </c>
+      <c r="J51" t="s">
+        <v>74</v>
+      </c>
+      <c r="K51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52">
+        <v>85</v>
+      </c>
+      <c r="E52" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52">
+        <v>37</v>
+      </c>
+      <c r="H52" t="s">
+        <v>102</v>
+      </c>
+      <c r="I52" t="s">
+        <v>168</v>
+      </c>
+      <c r="J52" t="s">
+        <v>74</v>
+      </c>
+      <c r="K52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53">
+        <v>90</v>
+      </c>
+      <c r="E53" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s">
+        <v>102</v>
+      </c>
+      <c r="I53" t="s">
+        <v>168</v>
+      </c>
+      <c r="J53" t="s">
+        <v>74</v>
+      </c>
+      <c r="K53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+      <c r="E54" t="s">
+        <v>167</v>
+      </c>
+      <c r="F54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s">
+        <v>102</v>
+      </c>
+      <c r="I54" t="s">
+        <v>168</v>
+      </c>
+      <c r="J54" t="s">
+        <v>74</v>
+      </c>
+      <c r="K54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55">
+        <v>900</v>
+      </c>
+      <c r="E55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" t="s">
+        <v>58</v>
+      </c>
+      <c r="G55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" t="s">
+        <v>113</v>
+      </c>
+      <c r="I55" t="s">
+        <v>169</v>
+      </c>
+      <c r="J55" t="s">
+        <v>74</v>
+      </c>
+      <c r="K55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56">
+        <v>950</v>
+      </c>
+      <c r="E56" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+      <c r="G56" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" t="s">
+        <v>56</v>
+      </c>
+      <c r="I56" t="s">
         <v>54</v>
       </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" t="s">
-        <v>57</v>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57">
+        <v>1350</v>
+      </c>
+      <c r="E57" t="s">
+        <v>159</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H57" t="s">
+        <v>56</v>
+      </c>
+      <c r="I57" t="s">
+        <v>54</v>
+      </c>
+      <c r="J57">
+        <v>7</v>
+      </c>
+      <c r="K57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58">
+        <v>10</v>
+      </c>
+      <c r="E58" t="s">
+        <v>159</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>58</v>
+      </c>
+      <c r="H58" t="s">
+        <v>56</v>
+      </c>
+      <c r="I58" t="s">
+        <v>54</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+      <c r="K58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>58</v>
+      </c>
+      <c r="H59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" t="s">
+        <v>54</v>
+      </c>
+      <c r="J59">
+        <v>7</v>
+      </c>
+      <c r="K59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60">
+        <v>500</v>
+      </c>
+      <c r="E60" t="s">
+        <v>159</v>
+      </c>
+      <c r="F60" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60" t="s">
+        <v>56</v>
+      </c>
+      <c r="I60" t="s">
+        <v>54</v>
+      </c>
+      <c r="J60" t="s">
+        <v>58</v>
+      </c>
+      <c r="K60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61">
+        <v>1000</v>
+      </c>
+      <c r="E61" t="s">
+        <v>159</v>
+      </c>
+      <c r="F61" t="s">
+        <v>58</v>
+      </c>
+      <c r="G61" t="s">
+        <v>58</v>
+      </c>
+      <c r="H61" t="s">
+        <v>56</v>
+      </c>
+      <c r="I61" t="s">
+        <v>54</v>
+      </c>
+      <c r="J61" t="s">
+        <v>58</v>
+      </c>
+      <c r="K61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62">
+        <v>50</v>
+      </c>
+      <c r="E62" t="s">
+        <v>159</v>
+      </c>
+      <c r="F62" t="s">
+        <v>58</v>
+      </c>
+      <c r="G62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62" t="s">
+        <v>56</v>
+      </c>
+      <c r="I62" t="s">
+        <v>54</v>
+      </c>
+      <c r="J62" t="s">
+        <v>58</v>
+      </c>
+      <c r="K62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63">
+        <v>100</v>
+      </c>
+      <c r="E63" t="s">
+        <v>159</v>
+      </c>
+      <c r="F63" t="s">
+        <v>58</v>
+      </c>
+      <c r="G63" t="s">
+        <v>58</v>
+      </c>
+      <c r="H63" t="s">
+        <v>56</v>
+      </c>
+      <c r="I63" t="s">
+        <v>54</v>
+      </c>
+      <c r="J63" t="s">
+        <v>58</v>
+      </c>
+      <c r="K63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>9</v>
+      </c>
+      <c r="B64" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64">
+        <v>195.6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" t="s">
+        <v>171</v>
+      </c>
+      <c r="G64">
+        <v>37</v>
+      </c>
+      <c r="H64" t="s">
+        <v>188</v>
+      </c>
+      <c r="I64" t="s">
+        <v>172</v>
+      </c>
+      <c r="J64" t="s">
+        <v>58</v>
+      </c>
+      <c r="K64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65">
+        <v>47</v>
+      </c>
+      <c r="E65" t="s">
+        <v>159</v>
+      </c>
+      <c r="F65" t="s">
+        <v>171</v>
+      </c>
+      <c r="G65">
+        <v>37</v>
+      </c>
+      <c r="H65" t="s">
+        <v>188</v>
+      </c>
+      <c r="I65" t="s">
+        <v>172</v>
+      </c>
+      <c r="J65" t="s">
+        <v>58</v>
+      </c>
+      <c r="K65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>159</v>
+      </c>
+      <c r="F66" t="s">
+        <v>171</v>
+      </c>
+      <c r="G66">
+        <v>37</v>
+      </c>
+      <c r="H66" t="s">
+        <v>188</v>
+      </c>
+      <c r="I66" t="s">
+        <v>172</v>
+      </c>
+      <c r="J66" t="s">
+        <v>58</v>
+      </c>
+      <c r="K66" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>